--- a/src/public/excel/template.xlsx
+++ b/src/public/excel/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\e logistik\backend-e-logistik\src\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B4437D-C4FB-4B29-84ED-8CEFE1CC999D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0550CA38-34E5-41D3-AB4C-1D07AD08F63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{794403F2-B159-4905-B9A4-B9DB38D9DE83}"/>
   </bookViews>
@@ -79,7 +79,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,7 +122,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -130,16 +130,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -172,8 +182,8 @@
       <xdr:rowOff>136072</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>204106</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>584638</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>129070</xdr:rowOff>
     </xdr:to>
@@ -206,7 +216,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="204107" y="136072"/>
-          <a:ext cx="1306285" cy="768605"/>
+          <a:ext cx="1030859" cy="754998"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -217,98 +227,6 @@
         </a:ln>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>108857</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>14969</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>843643</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>60688</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Freeform: Shape 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1064586-001D-2029-D782-8F0BE4783DC7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="108857" y="1062719"/>
-          <a:ext cx="5959929" cy="45719"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst>
-            <a:gd name="T0" fmla="+- 0 1067 1067"/>
-            <a:gd name="T1" fmla="*/ T0 w 9790"/>
-            <a:gd name="T2" fmla="+- 0 10857 1067"/>
-            <a:gd name="T3" fmla="*/ T2 w 9790"/>
-          </a:gdLst>
-          <a:ahLst/>
-          <a:cxnLst>
-            <a:cxn ang="0">
-              <a:pos x="T1" y="0"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="T3" y="0"/>
-            </a:cxn>
-          </a:cxnLst>
-          <a:rect l="0" t="0" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="9790">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="9790" y="0"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="19050" cmpd="thickThin">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0" upright="1">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-ID"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -633,74 +551,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D22A1FE-9738-4059-A727-C99BB7C24466}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="145" zoomScaleNormal="100" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="9.140625" customWidth="1"/>
     <col min="6" max="6" width="9.140625" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22.5" customHeight="1">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3" t="s">
+    <row r="1" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="31.5" customHeight="1">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+    <row r="4" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+    <row r="5" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
     </row>
   </sheetData>
